--- a/POOA/lista_ATAS.xlsx
+++ b/POOA/lista_ATAS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ALESSANDRO GRACA FRANCO MAHUMANE</t>
   </si>
@@ -93,21 +93,12 @@
     <t>23/08/2022</t>
   </si>
   <si>
-    <t>25/08/2022</t>
-  </si>
-  <si>
     <t>26/08/2022</t>
   </si>
   <si>
     <t>30/08/2022</t>
   </si>
   <si>
-    <t>13/09/2022</t>
-  </si>
-  <si>
-    <t>15/09/2022</t>
-  </si>
-  <si>
     <t>16/09/2022</t>
   </si>
   <si>
@@ -133,6 +124,24 @@
   </si>
   <si>
     <t>13/10/2022</t>
+  </si>
+  <si>
+    <t>13/9/2022</t>
+  </si>
+  <si>
+    <t>15/9/2022</t>
+  </si>
+  <si>
+    <t>14/10/2022</t>
+  </si>
+  <si>
+    <t>18/10/2022</t>
+  </si>
+  <si>
+    <t>BENJAMIM ZUNGUZA</t>
+  </si>
+  <si>
+    <t>20/10/2022</t>
   </si>
 </sst>
 </file>
@@ -499,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C25"/>
+  <dimension ref="A3:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -549,43 +558,43 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
         <v>44570</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
         <v>44601</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="7">
         <v>44721</v>
@@ -594,7 +603,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7">
         <v>44782</v>
@@ -603,129 +612,138 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44813</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44722</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7">
-        <v>44722</v>
+        <v>44752</v>
       </c>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7">
-        <v>44752</v>
+        <v>44875</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7">
-        <v>44875</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
